--- a/file/index/1.xlsx
+++ b/file/index/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalenergy\file\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DF8EED-4343-4767-9C85-61436979ABAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A108E82-0030-44D5-822C-42A7E00308B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4851" yWindow="6291" windowWidth="10954" windowHeight="5572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="year" sheetId="4" r:id="rId1"/>
@@ -27,10 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +426,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2129,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>

--- a/file/index/1.xlsx
+++ b/file/index/1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalenergy\file\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A108E82-0030-44D5-822C-42A7E00308B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A35997-C80B-4BF0-9B2F-E08974E83686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>

--- a/file/index/1.xlsx
+++ b/file/index/1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalenergy\file\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A35997-C80B-4BF0-9B2F-E08974E83686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65951AAC-5A4A-497A-8E02-6DF854D7A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1089" windowWidth="10611" windowHeight="8451" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="year" sheetId="4" r:id="rId1"/>
     <sheet name="POP" sheetId="2" r:id="rId2"/>
     <sheet name="GDP" sheetId="1" r:id="rId3"/>
-    <sheet name="Energy" sheetId="3" r:id="rId4"/>
+    <sheet name="energy" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A4BCED-1321-4CA4-9754-967400BA48A9}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -482,686 +482,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2011</v>
+        <v>707</v>
       </c>
       <c r="B1">
-        <v>2012</v>
+        <v>916</v>
       </c>
       <c r="C1">
-        <v>2013</v>
+        <v>1125</v>
       </c>
       <c r="D1">
-        <v>2014</v>
+        <v>1334</v>
       </c>
       <c r="E1">
-        <v>2015</v>
+        <v>1543</v>
       </c>
       <c r="F1">
-        <v>2016</v>
+        <v>1752</v>
       </c>
       <c r="G1">
-        <v>2017</v>
+        <v>1961</v>
       </c>
       <c r="H1">
-        <v>2018</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>707</v>
+        <v>814</v>
       </c>
       <c r="B2">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C2">
-        <v>1125</v>
+        <v>1026</v>
       </c>
       <c r="D2">
-        <v>1334</v>
+        <v>1132</v>
       </c>
       <c r="E2">
-        <v>1543</v>
+        <v>1238</v>
       </c>
       <c r="F2">
-        <v>1752</v>
+        <v>1344</v>
       </c>
       <c r="G2">
-        <v>1961</v>
+        <v>1450</v>
       </c>
       <c r="H2">
-        <v>2170</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>814</v>
+        <v>6052</v>
       </c>
       <c r="B3">
-        <v>920</v>
+        <v>6210</v>
       </c>
       <c r="C3">
-        <v>1026</v>
+        <v>6368</v>
       </c>
       <c r="D3">
-        <v>1132</v>
+        <v>6526</v>
       </c>
       <c r="E3">
-        <v>1238</v>
+        <v>6684</v>
       </c>
       <c r="F3">
-        <v>1344</v>
+        <v>6842</v>
       </c>
       <c r="G3">
-        <v>1450</v>
+        <v>7000</v>
       </c>
       <c r="H3">
-        <v>1556</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6052</v>
-      </c>
-      <c r="B4">
-        <v>6210</v>
+        <v>2306</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2505</v>
       </c>
       <c r="C4">
-        <v>6368</v>
-      </c>
-      <c r="D4">
-        <v>6526</v>
+        <v>2704</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2903</v>
       </c>
       <c r="E4">
-        <v>6684</v>
-      </c>
-      <c r="F4">
-        <v>6842</v>
+        <v>3102</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3301</v>
       </c>
       <c r="G4">
-        <v>7000</v>
-      </c>
-      <c r="H4">
-        <v>7158</v>
+        <v>3500</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3699</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2306</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2505</v>
+        <v>2119.48</v>
+      </c>
+      <c r="B5">
+        <v>2177.9</v>
       </c>
       <c r="C5">
-        <v>2704</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2903</v>
+        <v>2236.3200000000002</v>
+      </c>
+      <c r="D5">
+        <v>2294.7399999999998</v>
       </c>
       <c r="E5">
-        <v>3102</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3301</v>
+        <v>2353.16</v>
+      </c>
+      <c r="F5">
+        <v>2411.58</v>
       </c>
       <c r="G5">
-        <v>3500</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3699</v>
+        <v>2470</v>
+      </c>
+      <c r="H5">
+        <v>2528.42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2119.48</v>
+        <v>3536.6</v>
       </c>
       <c r="B6">
-        <v>2177.9</v>
+        <v>3655.5</v>
       </c>
       <c r="C6">
-        <v>2236.3200000000002</v>
+        <v>3774.4</v>
       </c>
       <c r="D6">
-        <v>2294.7399999999998</v>
+        <v>3893.3</v>
       </c>
       <c r="E6">
-        <v>2353.16</v>
+        <v>4012.2</v>
       </c>
       <c r="F6">
-        <v>2411.58</v>
+        <v>4131.1000000000004</v>
       </c>
       <c r="G6">
-        <v>2470</v>
+        <v>4250</v>
       </c>
       <c r="H6">
-        <v>2528.42</v>
+        <v>4368.8999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3536.6</v>
+        <v>2300.04</v>
       </c>
       <c r="B7">
-        <v>3655.5</v>
+        <v>2361.6999999999998</v>
       </c>
       <c r="C7">
-        <v>3774.4</v>
+        <v>2423.36</v>
       </c>
       <c r="D7">
-        <v>3893.3</v>
+        <v>2485.02</v>
       </c>
       <c r="E7">
-        <v>4012.2</v>
+        <v>2546.6799999999998</v>
       </c>
       <c r="F7">
-        <v>4131.1000000000004</v>
+        <v>2608.34</v>
       </c>
       <c r="G7">
-        <v>4250</v>
+        <v>2670</v>
       </c>
       <c r="H7">
-        <v>4368.8999999999996</v>
+        <v>2731.66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2300.04</v>
+        <v>2817.8</v>
       </c>
       <c r="B8">
-        <v>2361.6999999999998</v>
+        <v>2956.5</v>
       </c>
       <c r="C8">
-        <v>2423.36</v>
+        <v>3095.2</v>
       </c>
       <c r="D8">
-        <v>2485.02</v>
+        <v>3233.9</v>
       </c>
       <c r="E8">
-        <v>2546.6799999999998</v>
+        <v>3372.6</v>
       </c>
       <c r="F8">
-        <v>2608.34</v>
+        <v>3511.3</v>
       </c>
       <c r="G8">
-        <v>2670</v>
+        <v>3650</v>
       </c>
       <c r="H8">
-        <v>2731.66</v>
+        <v>3788.7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2817.8</v>
+        <v>1590.02</v>
       </c>
       <c r="B9">
-        <v>2956.5</v>
+        <v>1708.35</v>
       </c>
       <c r="C9">
-        <v>3095.2</v>
+        <v>1826.68</v>
       </c>
       <c r="D9">
-        <v>3233.9</v>
+        <v>1945.01</v>
       </c>
       <c r="E9">
-        <v>3372.6</v>
+        <v>2063.34</v>
       </c>
       <c r="F9">
-        <v>3511.3</v>
+        <v>2181.67</v>
       </c>
       <c r="G9">
-        <v>3650</v>
+        <v>2300</v>
       </c>
       <c r="H9">
-        <v>3788.7</v>
+        <v>2418.33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1590.02</v>
+        <v>7264</v>
       </c>
       <c r="B10">
-        <v>1708.35</v>
+        <v>7350</v>
       </c>
       <c r="C10">
-        <v>1826.68</v>
+        <v>7436</v>
       </c>
       <c r="D10">
-        <v>1945.01</v>
+        <v>7522</v>
       </c>
       <c r="E10">
-        <v>2063.34</v>
+        <v>7608</v>
       </c>
       <c r="F10">
-        <v>2181.67</v>
+        <v>7694</v>
       </c>
       <c r="G10">
-        <v>2300</v>
+        <v>7780</v>
       </c>
       <c r="H10">
-        <v>2418.33</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7264</v>
+        <v>5188</v>
       </c>
       <c r="B11">
-        <v>7350</v>
+        <v>5255</v>
       </c>
       <c r="C11">
-        <v>7436</v>
+        <v>5322</v>
       </c>
       <c r="D11">
-        <v>7522</v>
+        <v>5389</v>
       </c>
       <c r="E11">
-        <v>7608</v>
+        <v>5456</v>
       </c>
       <c r="F11">
-        <v>7694</v>
+        <v>5523</v>
       </c>
       <c r="G11">
-        <v>7780</v>
+        <v>5590</v>
       </c>
       <c r="H11">
-        <v>7866</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5188</v>
+        <v>5801.2</v>
       </c>
       <c r="B12">
-        <v>5255</v>
+        <v>5866</v>
       </c>
       <c r="C12">
-        <v>5322</v>
+        <v>5930.8</v>
       </c>
       <c r="D12">
-        <v>5389</v>
+        <v>5995.6</v>
       </c>
       <c r="E12">
-        <v>5456</v>
+        <v>6060.4</v>
       </c>
       <c r="F12">
-        <v>5523</v>
+        <v>6125.2</v>
       </c>
       <c r="G12">
-        <v>5590</v>
+        <v>6190</v>
       </c>
       <c r="H12">
-        <v>5657</v>
+        <v>6254.8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5801.2</v>
+        <v>3484</v>
       </c>
       <c r="B13">
-        <v>5866</v>
+        <v>3545</v>
       </c>
       <c r="C13">
-        <v>5930.8</v>
+        <v>3606</v>
       </c>
       <c r="D13">
-        <v>5995.6</v>
+        <v>3667</v>
       </c>
       <c r="E13">
-        <v>6060.4</v>
+        <v>3728</v>
       </c>
       <c r="F13">
-        <v>6125.2</v>
+        <v>3789</v>
       </c>
       <c r="G13">
-        <v>6190</v>
+        <v>3850</v>
       </c>
       <c r="H13">
-        <v>6254.8</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3484</v>
+        <v>4397.3999999999996</v>
       </c>
       <c r="B14">
-        <v>3545</v>
+        <v>4429.5</v>
       </c>
       <c r="C14">
-        <v>3606</v>
+        <v>4461.6000000000004</v>
       </c>
       <c r="D14">
-        <v>3667</v>
+        <v>4493.7</v>
       </c>
       <c r="E14">
-        <v>3728</v>
+        <v>4525.8</v>
       </c>
       <c r="F14">
-        <v>3789</v>
+        <v>4557.8999999999996</v>
       </c>
       <c r="G14">
-        <v>3850</v>
+        <v>4590</v>
       </c>
       <c r="H14">
-        <v>3911</v>
+        <v>4622.1000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4397.3999999999996</v>
+        <v>9620</v>
       </c>
       <c r="B15">
-        <v>4429.5</v>
+        <v>9675</v>
       </c>
       <c r="C15">
-        <v>4461.6000000000004</v>
+        <v>9730</v>
       </c>
       <c r="D15">
-        <v>4493.7</v>
+        <v>9785</v>
       </c>
       <c r="E15">
-        <v>4525.8</v>
+        <v>9840</v>
       </c>
       <c r="F15">
-        <v>4557.8999999999996</v>
+        <v>9895</v>
       </c>
       <c r="G15">
-        <v>4590</v>
+        <v>9950</v>
       </c>
       <c r="H15">
-        <v>4622.1000000000004</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9620</v>
+        <v>9146</v>
       </c>
       <c r="B16">
-        <v>9675</v>
+        <v>9205</v>
       </c>
       <c r="C16">
-        <v>9730</v>
+        <v>9264</v>
       </c>
       <c r="D16">
-        <v>9785</v>
+        <v>9323</v>
       </c>
       <c r="E16">
-        <v>9840</v>
+        <v>9382</v>
       </c>
       <c r="F16">
-        <v>9895</v>
+        <v>9441</v>
       </c>
       <c r="G16">
-        <v>9950</v>
+        <v>9500</v>
       </c>
       <c r="H16">
-        <v>10005</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9146</v>
+        <v>5538</v>
       </c>
       <c r="B17">
-        <v>9205</v>
+        <v>5590</v>
       </c>
       <c r="C17">
-        <v>9264</v>
+        <v>5642</v>
       </c>
       <c r="D17">
-        <v>9323</v>
+        <v>5694</v>
       </c>
       <c r="E17">
-        <v>9382</v>
+        <v>5746</v>
       </c>
       <c r="F17">
-        <v>9441</v>
+        <v>5798</v>
       </c>
       <c r="G17">
-        <v>9500</v>
+        <v>5850</v>
       </c>
       <c r="H17">
-        <v>9559</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>5538</v>
+        <v>6438.8</v>
       </c>
       <c r="B18">
-        <v>5590</v>
+        <v>6499</v>
       </c>
       <c r="C18">
-        <v>5642</v>
+        <v>6559.2</v>
       </c>
       <c r="D18">
-        <v>5694</v>
+        <v>6619.4</v>
       </c>
       <c r="E18">
-        <v>5746</v>
+        <v>6679.6</v>
       </c>
       <c r="F18">
-        <v>5798</v>
+        <v>6739.8</v>
       </c>
       <c r="G18">
-        <v>5850</v>
+        <v>6800</v>
       </c>
       <c r="H18">
-        <v>5902</v>
+        <v>6860.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6438.8</v>
+        <v>10686</v>
       </c>
       <c r="B19">
-        <v>6499</v>
+        <v>10755</v>
       </c>
       <c r="C19">
-        <v>6559.2</v>
+        <v>10824</v>
       </c>
       <c r="D19">
-        <v>6619.4</v>
+        <v>10893</v>
       </c>
       <c r="E19">
-        <v>6679.6</v>
+        <v>10962</v>
       </c>
       <c r="F19">
-        <v>6739.8</v>
+        <v>11031</v>
       </c>
       <c r="G19">
-        <v>6800</v>
+        <v>11100</v>
       </c>
       <c r="H19">
-        <v>6860.2</v>
+        <v>11169</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>10686</v>
+        <v>4290</v>
       </c>
       <c r="B20">
-        <v>10755</v>
+        <v>4375</v>
       </c>
       <c r="C20">
-        <v>10824</v>
+        <v>4460</v>
       </c>
       <c r="D20">
-        <v>10893</v>
+        <v>4545</v>
       </c>
       <c r="E20">
-        <v>10962</v>
+        <v>4630</v>
       </c>
       <c r="F20">
-        <v>11031</v>
+        <v>4715</v>
       </c>
       <c r="G20">
-        <v>11100</v>
+        <v>4800</v>
       </c>
       <c r="H20">
-        <v>11169</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4290</v>
+        <v>540.05999999999995</v>
       </c>
       <c r="B21">
-        <v>4375</v>
+        <v>595.04999999999995</v>
       </c>
       <c r="C21">
-        <v>4460</v>
+        <v>650.04</v>
       </c>
       <c r="D21">
-        <v>4545</v>
+        <v>705.03</v>
       </c>
       <c r="E21">
-        <v>4630</v>
+        <v>760.02</v>
       </c>
       <c r="F21">
-        <v>4715</v>
+        <v>815.01</v>
       </c>
       <c r="G21">
-        <v>4800</v>
+        <v>870</v>
       </c>
       <c r="H21">
-        <v>4885</v>
+        <v>924.99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>540.05999999999995</v>
+        <v>2709.42</v>
       </c>
       <c r="B22">
-        <v>595.04999999999995</v>
+        <v>2757.85</v>
       </c>
       <c r="C22">
-        <v>650.04</v>
+        <v>2806.28</v>
       </c>
       <c r="D22">
-        <v>705.03</v>
+        <v>2854.71</v>
       </c>
       <c r="E22">
-        <v>760.02</v>
+        <v>2903.14</v>
       </c>
       <c r="F22">
-        <v>815.01</v>
+        <v>2951.57</v>
       </c>
       <c r="G22">
-        <v>870</v>
+        <v>3000</v>
       </c>
       <c r="H22">
-        <v>924.99</v>
+        <v>3048.43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2709.42</v>
+        <v>7754</v>
       </c>
       <c r="B23">
-        <v>2757.85</v>
+        <v>7795</v>
       </c>
       <c r="C23">
-        <v>2806.28</v>
+        <v>7836</v>
       </c>
       <c r="D23">
-        <v>2854.71</v>
+        <v>7877</v>
       </c>
       <c r="E23">
-        <v>2903.14</v>
+        <v>7918</v>
       </c>
       <c r="F23">
-        <v>2951.57</v>
+        <v>7959</v>
       </c>
       <c r="G23">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="H23">
-        <v>3048.43</v>
+        <v>8041</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>7754</v>
+        <v>3171.4</v>
       </c>
       <c r="B24">
-        <v>7795</v>
+        <v>3229.5</v>
       </c>
       <c r="C24">
-        <v>7836</v>
+        <v>3287.6</v>
       </c>
       <c r="D24">
-        <v>7877</v>
+        <v>3345.7</v>
       </c>
       <c r="E24">
-        <v>7918</v>
+        <v>3403.8</v>
       </c>
       <c r="F24">
-        <v>7959</v>
+        <v>3461.9</v>
       </c>
       <c r="G24">
-        <v>8000</v>
+        <v>3520</v>
       </c>
       <c r="H24">
-        <v>8041</v>
+        <v>3578.1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3171.4</v>
+        <v>4437.82</v>
       </c>
       <c r="B25">
-        <v>3229.5</v>
+        <v>4489.8500000000004</v>
       </c>
       <c r="C25">
-        <v>3287.6</v>
+        <v>4541.88</v>
       </c>
       <c r="D25">
-        <v>3345.7</v>
+        <v>4593.91</v>
       </c>
       <c r="E25">
-        <v>3403.8</v>
+        <v>4645.9399999999996</v>
       </c>
       <c r="F25">
-        <v>3461.9</v>
+        <v>4697.97</v>
       </c>
       <c r="G25">
-        <v>3520</v>
+        <v>4750</v>
       </c>
       <c r="H25">
-        <v>3578.1</v>
+        <v>4802.03</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4437.82</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>4489.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4541.88</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>4593.91</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4645.9399999999996</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4697.97</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>4750</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4802.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
         <v>598.52</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>604.29999999999995</v>
       </c>
@@ -1305,686 +1305,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2011</v>
+        <v>0.9</v>
       </c>
       <c r="B1">
-        <v>2012</v>
+        <v>1.2</v>
       </c>
       <c r="C1">
-        <v>2013</v>
+        <v>1.5</v>
       </c>
       <c r="D1">
-        <v>2014</v>
+        <v>1.8</v>
       </c>
       <c r="E1">
-        <v>2015</v>
+        <v>2.1</v>
       </c>
       <c r="F1">
-        <v>2016</v>
+        <v>2.4</v>
       </c>
       <c r="G1">
-        <v>2017</v>
+        <v>2.7</v>
       </c>
       <c r="H1">
-        <v>2018</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B2">
         <v>1.2</v>
       </c>
       <c r="C2">
+        <v>1.3</v>
+      </c>
+      <c r="D2">
+        <v>1.4</v>
+      </c>
+      <c r="E2">
         <v>1.5</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>1.6</v>
+      </c>
+      <c r="G2">
+        <v>1.7</v>
+      </c>
+      <c r="H2">
         <v>1.8</v>
-      </c>
-      <c r="E2">
-        <v>2.1</v>
-      </c>
-      <c r="F2">
-        <v>2.4</v>
-      </c>
-      <c r="G2">
-        <v>2.7</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B3">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="C3">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="G3">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.2000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>1.8</v>
+      </c>
+      <c r="G4">
+        <v>2.1</v>
+      </c>
+      <c r="H4">
         <v>2.4</v>
-      </c>
-      <c r="C4">
-        <v>2.6</v>
-      </c>
-      <c r="D4">
-        <v>2.8</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3.2</v>
-      </c>
-      <c r="G4">
-        <v>3.4</v>
-      </c>
-      <c r="H4">
-        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E5">
+        <v>1.4</v>
+      </c>
+      <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="F5">
-        <v>1.8</v>
-      </c>
       <c r="G5">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E6">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="F6">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G6">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H6">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>0.59999999999999898</v>
       </c>
       <c r="D7">
-        <v>1.7</v>
+        <v>0.79999999999999905</v>
       </c>
       <c r="E7">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="G7">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.2</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="C8">
-        <v>0.59999999999999898</v>
+        <v>1.27</v>
       </c>
       <c r="D8">
-        <v>0.79999999999999905</v>
+        <v>1.35</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="F8">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="G8">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="H8">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.1100000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="B9">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1.27</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D9">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="E9">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="F9">
-        <v>1.51</v>
+        <v>2.8</v>
       </c>
       <c r="G9">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2.2000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="D10">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="E10">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="F10">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>2.7</v>
+      </c>
+      <c r="B11">
+        <v>3.1</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>3.9</v>
+      </c>
+      <c r="E11">
         <v>4.3</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>5.7</v>
-      </c>
-      <c r="D11">
-        <v>6.4</v>
-      </c>
-      <c r="E11">
-        <v>7.1</v>
-      </c>
       <c r="F11">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="G11">
-        <v>8.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H11">
-        <v>9.1999999999999993</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>1.8</v>
+      </c>
+      <c r="E12">
+        <v>2.1</v>
+      </c>
+      <c r="F12">
+        <v>2.4</v>
+      </c>
+      <c r="G12">
         <v>2.7</v>
       </c>
-      <c r="B12">
-        <v>3.1</v>
-      </c>
-      <c r="C12">
-        <v>3.5</v>
-      </c>
-      <c r="D12">
-        <v>3.9</v>
-      </c>
-      <c r="E12">
-        <v>4.3</v>
-      </c>
-      <c r="F12">
-        <v>4.7</v>
-      </c>
-      <c r="G12">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="H12">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="B13">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E13">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="F13">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G13">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.2</v>
+      </c>
+      <c r="D14">
         <v>1.4</v>
       </c>
-      <c r="B14">
-        <v>1.7</v>
-      </c>
-      <c r="C14">
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+      <c r="F14">
+        <v>1.8</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E14">
-        <v>2.6</v>
-      </c>
-      <c r="F14">
-        <v>2.9</v>
-      </c>
-      <c r="G14">
-        <v>3.2</v>
-      </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="C15">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="D15">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="F15">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="H15">
-        <v>2.2000000000000002</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2.4</v>
+      </c>
+      <c r="C16">
+        <v>2.8</v>
+      </c>
+      <c r="D16">
+        <v>3.2</v>
+      </c>
+      <c r="E16">
+        <v>3.6</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H16">
         <v>4.8</v>
-      </c>
-      <c r="B16">
-        <v>5.2</v>
-      </c>
-      <c r="C16">
-        <v>5.6</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>6.4</v>
-      </c>
-      <c r="F16">
-        <v>6.8</v>
-      </c>
-      <c r="G16">
-        <v>7.2</v>
-      </c>
-      <c r="H16">
-        <v>7.6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B17">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="C17">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="D17">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E17">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="G17">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="H17">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="B18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C18">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D18">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E18">
         <v>2.7</v>
       </c>
       <c r="F18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H18">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1.5</v>
+        <v>4.1000000000000103</v>
       </c>
       <c r="B19">
-        <v>1.8</v>
+        <v>4.9000000000000101</v>
       </c>
       <c r="C19">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="D19">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="E19">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="G19">
-        <v>3.3</v>
+        <v>8.9</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4.1000000000000103</v>
+        <v>0.6</v>
       </c>
       <c r="B20">
-        <v>4.9000000000000101</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="E20">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="F20">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="G20">
-        <v>8.9</v>
+        <v>1.8</v>
       </c>
       <c r="H20">
-        <v>9.6999999999999993</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D21">
-        <v>1.2</v>
+        <v>0.32</v>
       </c>
       <c r="E21">
-        <v>1.4</v>
+        <v>0.36</v>
       </c>
       <c r="F21">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="G21">
-        <v>1.8</v>
+        <v>0.44</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="B22">
-        <v>0.24</v>
+        <v>1.4</v>
       </c>
       <c r="C22">
-        <v>0.28000000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="D22">
-        <v>0.32</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
-        <v>0.36</v>
+        <v>1.7</v>
       </c>
       <c r="F22">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G22">
-        <v>0.44</v>
+        <v>1.9</v>
       </c>
       <c r="H22">
-        <v>0.48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B23">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="E23">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="F23">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="G23">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>0.70000000000000095</v>
+      </c>
+      <c r="B24">
+        <v>0.80000000000000104</v>
+      </c>
+      <c r="C24">
+        <v>0.90000000000000102</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24">
         <v>1.2</v>
       </c>
-      <c r="B24">
-        <v>1.6</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2.4</v>
-      </c>
-      <c r="E24">
-        <v>2.8</v>
-      </c>
-      <c r="F24">
-        <v>3.2</v>
-      </c>
       <c r="G24">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.70000000000000095</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>0.80000000000000104</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C25">
-        <v>0.90000000000000102</v>
+        <v>1.2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E25">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G25">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H25">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2128,686 +2128,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2011</v>
+        <v>1.8</v>
       </c>
       <c r="B1">
-        <v>2012</v>
+        <v>2.4</v>
       </c>
       <c r="C1">
-        <v>2013</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>2014</v>
+        <v>3.6</v>
       </c>
       <c r="E1">
-        <v>2015</v>
+        <v>4.2</v>
       </c>
       <c r="F1">
-        <v>2016</v>
+        <v>4.8</v>
       </c>
       <c r="G1">
-        <v>2017</v>
+        <v>5.4</v>
       </c>
       <c r="H1">
-        <v>2018</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B2">
         <v>2.4</v>
       </c>
       <c r="C2">
+        <v>2.6</v>
+      </c>
+      <c r="D2">
+        <v>2.8</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>3.2</v>
+      </c>
+      <c r="G2">
+        <v>3.4</v>
+      </c>
+      <c r="H2">
         <v>3.6</v>
-      </c>
-      <c r="E2">
-        <v>4.2</v>
-      </c>
-      <c r="F2">
-        <v>4.8</v>
-      </c>
-      <c r="G2">
-        <v>5.4</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B3">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="D3">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4.4000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>1.8</v>
+      </c>
+      <c r="D4">
+        <v>2.4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3.6</v>
+      </c>
+      <c r="G4">
+        <v>4.2</v>
+      </c>
+      <c r="H4">
         <v>4.8</v>
-      </c>
-      <c r="C4">
-        <v>5.2</v>
-      </c>
-      <c r="D4">
-        <v>5.6</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>6.4</v>
-      </c>
-      <c r="G4">
-        <v>6.8</v>
-      </c>
-      <c r="H4">
-        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D5">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E5">
+        <v>2.8</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>3.6</v>
-      </c>
       <c r="G5">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B6">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="C6">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="E6">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="G6">
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2.2000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="B7">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="E7">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="G7">
-        <v>4.5999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.4</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>2.38</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>2.54</v>
       </c>
       <c r="D8">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>3.02</v>
       </c>
       <c r="G8">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2.2200000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="B9">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.54</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D9">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="E9">
-        <v>2.86</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>3.02</v>
+        <v>5.6</v>
       </c>
       <c r="G9">
-        <v>3.18</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>3.34</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3.6</v>
+        <v>8.6000000000000103</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>4.4000000000000004</v>
+        <v>11.4</v>
       </c>
       <c r="D10">
-        <v>4.8</v>
+        <v>12.8</v>
       </c>
       <c r="E10">
-        <v>5.2</v>
+        <v>14.2</v>
       </c>
       <c r="F10">
-        <v>5.6</v>
+        <v>15.6</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>6.4</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8.6000000000000103</v>
+        <v>5.4</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="C11">
-        <v>11.4</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>12.8</v>
+        <v>7.8</v>
       </c>
       <c r="E11">
-        <v>14.2</v>
+        <v>8.6</v>
       </c>
       <c r="F11">
-        <v>15.6</v>
+        <v>9.4</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H11">
-        <v>18.399999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>1.8</v>
+      </c>
+      <c r="B12">
+        <v>2.4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3.6</v>
+      </c>
+      <c r="E12">
+        <v>4.2</v>
+      </c>
+      <c r="F12">
+        <v>4.8</v>
+      </c>
+      <c r="G12">
         <v>5.4</v>
       </c>
-      <c r="B12">
-        <v>6.2</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>7.8</v>
-      </c>
-      <c r="E12">
-        <v>8.6</v>
-      </c>
-      <c r="F12">
-        <v>9.4</v>
-      </c>
-      <c r="G12">
-        <v>10.199999999999999</v>
-      </c>
       <c r="H12">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="B13">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E13">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="F13">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="G13">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>1.6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2.4</v>
+      </c>
+      <c r="D14">
         <v>2.8</v>
       </c>
-      <c r="B14">
-        <v>3.4</v>
-      </c>
-      <c r="C14">
+      <c r="E14">
+        <v>3.2</v>
+      </c>
+      <c r="F14">
+        <v>3.6</v>
+      </c>
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E14">
-        <v>5.2</v>
-      </c>
-      <c r="F14">
-        <v>5.8</v>
-      </c>
-      <c r="G14">
-        <v>6.4</v>
-      </c>
       <c r="H14">
-        <v>7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1.6</v>
+        <v>9.6000000000000103</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>10.4</v>
       </c>
       <c r="C15">
-        <v>2.4</v>
+        <v>11.2</v>
       </c>
       <c r="D15">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>3.2</v>
+        <v>12.8</v>
       </c>
       <c r="F15">
-        <v>3.6</v>
+        <v>13.6</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14.4</v>
       </c>
       <c r="H15">
-        <v>4.4000000000000004</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9.6000000000000103</v>
+        <v>4.0000000000000098</v>
       </c>
       <c r="B16">
-        <v>10.4</v>
+        <v>4.8000000000000096</v>
       </c>
       <c r="C16">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="E16">
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="F16">
-        <v>13.6</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>14.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H16">
-        <v>15.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4.0000000000000098</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B17">
-        <v>4.8000000000000096</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="D17">
-        <v>6.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E17">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="G17">
-        <v>8.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D18">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="E18">
         <v>5.4</v>
       </c>
       <c r="F18">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H18">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3</v>
+        <v>8.2000000000000099</v>
       </c>
       <c r="B19">
-        <v>3.6</v>
+        <v>9.8000000000000096</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>11.4</v>
       </c>
       <c r="D19">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>5.4</v>
+        <v>14.6</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>16.2</v>
       </c>
       <c r="G19">
-        <v>6.6</v>
+        <v>17.8</v>
       </c>
       <c r="H19">
-        <v>7.2</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8.2000000000000099</v>
+        <v>1.2</v>
       </c>
       <c r="B20">
-        <v>9.8000000000000096</v>
+        <v>1.6</v>
       </c>
       <c r="C20">
-        <v>11.4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="E20">
-        <v>14.6</v>
+        <v>2.8</v>
       </c>
       <c r="F20">
-        <v>16.2</v>
+        <v>3.2</v>
       </c>
       <c r="G20">
-        <v>17.8</v>
+        <v>3.6</v>
       </c>
       <c r="H20">
-        <v>19.399999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="B21">
-        <v>1.6</v>
+        <v>0.48</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D21">
-        <v>2.4</v>
+        <v>0.64</v>
       </c>
       <c r="E21">
-        <v>2.8</v>
+        <v>0.72</v>
       </c>
       <c r="F21">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="G21">
-        <v>3.6</v>
+        <v>0.88</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="B22">
-        <v>0.48</v>
+        <v>2.8</v>
       </c>
       <c r="C22">
-        <v>0.56000000000000005</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.64</v>
+        <v>3.2</v>
       </c>
       <c r="E22">
-        <v>0.72</v>
+        <v>3.4</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="G22">
-        <v>0.88</v>
+        <v>3.8</v>
       </c>
       <c r="H22">
-        <v>0.96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="B23">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="E23">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="F23">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="G23">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>1.4</v>
+      </c>
+      <c r="B24">
+        <v>1.6</v>
+      </c>
+      <c r="C24">
+        <v>1.8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F24">
         <v>2.4</v>
       </c>
-      <c r="B24">
-        <v>3.2</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>4.8</v>
-      </c>
-      <c r="E24">
-        <v>5.6</v>
-      </c>
-      <c r="F24">
-        <v>6.4</v>
-      </c>
       <c r="G24">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C25">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="E25">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="F25">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H25">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
